--- a/X-Project tools/Excel/Maven Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Maven Cheatsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Maven cheatsheet" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Repository URL:</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>http://nexus.172.22.220.35.xip.io/content/repositories/releases/</t>
   </si>
   <si>
     <t>If necessary username and password must be set up in settngs.xml.</t>
@@ -145,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +358,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -370,7 +373,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -380,15 +385,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Code" xfId="1"/>
@@ -407,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,7 +478,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -516,7 +512,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -692,17 +687,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:Z15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="15" customWidth="1" outlineLevel="1"/>
@@ -710,48 +705,49 @@
     <col min="29" max="29" width="11" customWidth="1" outlineLevel="1"/>
     <col min="30" max="30" width="10.42578125" customWidth="1" outlineLevel="1"/>
     <col min="31" max="31" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="36" width="10.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="36" width="10.42578125" customWidth="1" outlineLevel="1"/>
     <col min="37" max="37" width="65.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="46" customWidth="1"/>
     <col min="39" max="39" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:38">
+      <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="18" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="20"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="18"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
       <c r="AI1" s="10"/>
@@ -763,32 +759,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="17"/>
+    <row r="2" spans="2:38">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -802,32 +798,32 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="2:38" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="12"/>
+    <row r="3" spans="2:38" collapsed="1">
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -841,34 +837,34 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="2:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="2:38" ht="30">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -884,35 +880,35 @@
       </c>
       <c r="AL4" s="6"/>
     </row>
-    <row r="5" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:38" ht="45" customHeight="1" outlineLevel="1">
       <c r="B5" s="3"/>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="11" t="str">
         <f>B4&amp;" -DmanualInclude="&amp;AB5&amp;":"&amp;AD5&amp;" -DreResolve="&amp;IF(AF5,"true","false")</f>
         <v>mvn dependency:purge-local-repository -DmanualInclude=com.bs.proteo:something -DreResolve=true</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
       <c r="AA5" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,34 +936,34 @@
       </c>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:38">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -981,35 +977,35 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
       <c r="B7" s="9"/>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="11" t="str">
         <f>"mvn deploy -DaltDeploymentRepository="&amp;AB7&amp;"::"&amp;AD7&amp;"::"&amp;AF7</f>
-        <v>mvn deploy -DaltDeploymentRepository=artifactory::default::http://nexus.172.22.220.35.xip.io/content/repositories/releases/</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
+        <v>mvn deploy -DaltDeploymentRepository=artifactory::default::</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
       <c r="AA7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1025,46 +1021,44 @@
       <c r="AE7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF7" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF7" s="5"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" outlineLevel="1">
       <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1078,34 +1072,34 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="12"/>
+    <row r="9" spans="2:38">
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="2"/>
@@ -1117,39 +1111,39 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
       <c r="B10" s="9"/>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="11" t="str">
         <f>"mvn deploy:deploy-file -DrepositoryId="&amp;AB10&amp;" -Durl="&amp;AF10&amp;" -DpomFile="&amp;AD10</f>
-        <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl=http://nexus.172.22.220.35.xip.io/content/repositories/releases/ -DpomFile=pom.xml</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
+        <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl= -DpomFile=pom.xml</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,57 +1151,55 @@
         <v>15</v>
       </c>
       <c r="AC10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AF10" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AF10" s="5"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
       <c r="B11" s="9"/>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="11" t="str">
         <f>"mvn deploy:deploy-file -DrepositoryId="&amp;AB11&amp;" -Durl="&amp;AH11&amp;" -Dfile="&amp;AF11&amp;" -DpomFile="&amp;AD11</f>
-        <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl=http://nexus.172.22.220.35.xip.io/content/repositories/releases/ -Dfile=microservice-archetype-0.2.10.jar -DpomFile=microservice-archetype-0.2.10.pom</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
+        <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl= -Dfile=microservice-archetype-0.2.10.jar -DpomFile=microservice-archetype-0.2.10.pom</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1215,58 +1207,56 @@
         <v>15</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF11" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="AG11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" outlineLevel="1">
       <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -1280,34 +1270,34 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
+    <row r="13" spans="2:38">
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -1319,50 +1309,50 @@
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:38" ht="45" customHeight="1" outlineLevel="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="11" t="str">
         <f>"mvn install:install-file -Dfile="&amp;AB14&amp;" -DpomFile="&amp;AD14</f>
         <v>mvn install:install-file -Dfile=some.jar -DpomFile=microservice-archetype-0.2.10.pom</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="AC14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -1371,100 +1361,100 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL14" s="1"/>
     </row>
-    <row r="15" spans="2:38" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:38" ht="45" outlineLevel="1">
       <c r="B15" s="9"/>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="11" t="str">
         <f>"mvn install:install-file -Dfile="&amp;AB15&amp;" -DgroupId="&amp;AD15&amp;" -DartifactId="&amp;AF15&amp;" -Dversion="&amp;AH15&amp;" -Dpackaging="&amp;AJ15</f>
         <v>mvn install:install-file -Dfile=some.jar -DgroupId=tmp.group.id -DartifactId=sibis-wrapper-eg7029 -Dversion=0.0.2 -Dpackaging=jar</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AF15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AJ15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ15" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="AK15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:38" outlineLevel="1">
       <c r="B16" s="9"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -1478,32 +1468,32 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
+    <row r="17" spans="2:38">
+      <c r="B17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -1517,32 +1507,32 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="17"/>
+    <row r="18" spans="2:38">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="21"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -1556,32 +1546,32 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19" spans="2:38" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="12"/>
+    <row r="19" spans="2:38" collapsed="1">
+      <c r="B19" s="15"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -1595,32 +1585,32 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
+    <row r="20" spans="2:38">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -1634,32 +1624,32 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" outlineLevel="1">
       <c r="B21" s="3"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -1673,32 +1663,32 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" outlineLevel="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -1712,32 +1702,32 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" outlineLevel="2">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -1751,32 +1741,32 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" outlineLevel="2">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -1790,32 +1780,32 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" outlineLevel="3">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -1829,32 +1819,32 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" outlineLevel="3">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -1868,32 +1858,32 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" outlineLevel="4">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -1907,32 +1897,32 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" outlineLevel="4">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -1946,32 +1936,32 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" outlineLevel="5">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -1985,32 +1975,32 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" outlineLevel="5">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -2024,32 +2014,32 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" outlineLevel="6">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="12"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -2063,32 +2053,32 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:38" outlineLevel="6">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="12"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -2102,7 +2092,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="2:38" outlineLevel="7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" outlineLevel="7">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2110,24 +2100,24 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -2141,7 +2131,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="2:38" outlineLevel="7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" outlineLevel="7">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2149,24 +2139,24 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -2180,32 +2170,32 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" outlineLevel="6">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="14"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -2219,32 +2209,32 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" outlineLevel="5">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="14"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
@@ -2258,32 +2248,32 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" outlineLevel="4">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -2297,32 +2287,32 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" outlineLevel="3">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="14"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
@@ -2336,32 +2326,32 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" outlineLevel="3">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="14"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -2375,32 +2365,32 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" outlineLevel="2">
       <c r="B40" s="3"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="14"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -2414,32 +2404,32 @@
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="12"/>
+    <row r="41" spans="2:38">
+      <c r="B41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="14"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -2455,36 +2445,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C14:Z14"/>
-    <mergeCell ref="C16:Z16"/>
-    <mergeCell ref="I34:Z34"/>
-    <mergeCell ref="B41:Z41"/>
-    <mergeCell ref="B13:Z13"/>
-    <mergeCell ref="AA1:AF1"/>
-    <mergeCell ref="B9:Z9"/>
-    <mergeCell ref="H35:Z35"/>
-    <mergeCell ref="G36:Z36"/>
-    <mergeCell ref="F37:Z37"/>
-    <mergeCell ref="E38:Z38"/>
-    <mergeCell ref="D39:Z39"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="C5:Z5"/>
-    <mergeCell ref="G29:Z29"/>
-    <mergeCell ref="G30:Z30"/>
-    <mergeCell ref="H31:Z31"/>
-    <mergeCell ref="H32:Z32"/>
-    <mergeCell ref="I33:Z33"/>
-    <mergeCell ref="F28:Z28"/>
-    <mergeCell ref="B1:Z1"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="B18:Z18"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="C7:Z7"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="C10:Z10"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C15:Z15"/>
@@ -2497,6 +2457,36 @@
     <mergeCell ref="C22:Z22"/>
     <mergeCell ref="D23:Z23"/>
     <mergeCell ref="D24:Z24"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="C7:Z7"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="B9:Z9"/>
+    <mergeCell ref="H35:Z35"/>
+    <mergeCell ref="G36:Z36"/>
+    <mergeCell ref="F37:Z37"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="C5:Z5"/>
+    <mergeCell ref="G29:Z29"/>
+    <mergeCell ref="G30:Z30"/>
+    <mergeCell ref="H31:Z31"/>
+    <mergeCell ref="H32:Z32"/>
+    <mergeCell ref="I33:Z33"/>
+    <mergeCell ref="F28:Z28"/>
+    <mergeCell ref="B1:Z1"/>
+    <mergeCell ref="B17:Z17"/>
+    <mergeCell ref="C14:Z14"/>
+    <mergeCell ref="C16:Z16"/>
+    <mergeCell ref="I34:Z34"/>
+    <mergeCell ref="B41:Z41"/>
+    <mergeCell ref="B13:Z13"/>
+    <mergeCell ref="E38:Z38"/>
+    <mergeCell ref="D39:Z39"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="B18:Z18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/X-Project tools/Excel/Maven Cheatsheet.xlsx
+++ b/X-Project tools/Excel/Maven Cheatsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Maven cheatsheet" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -142,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,17 +358,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -399,12 +399,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -446,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,9 +481,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,6 +516,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,17 +692,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:AL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="2.85546875" customWidth="1"/>
     <col min="27" max="27" width="15" customWidth="1" outlineLevel="1"/>
@@ -712,7 +717,7 @@
     <col min="39" max="39" width="68.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:38">
+    <row r="1" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>4</v>
       </c>
@@ -759,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:38">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -798,32 +803,32 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="6"/>
     </row>
-    <row r="3" spans="2:38" collapsed="1">
+    <row r="3" spans="2:38" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="12"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -837,7 +842,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="2:38" ht="30">
+    <row r="4" spans="2:38" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
@@ -880,35 +885,35 @@
       </c>
       <c r="AL4" s="6"/>
     </row>
-    <row r="5" spans="2:38" ht="45" customHeight="1" outlineLevel="1">
+    <row r="5" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="13" t="str">
         <f>B4&amp;" -DmanualInclude="&amp;AB5&amp;":"&amp;AD5&amp;" -DreResolve="&amp;IF(AF5,"true","false")</f>
         <v>mvn dependency:purge-local-repository -DmanualInclude=com.bs.proteo:something -DreResolve=true</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="2" t="s">
         <v>7</v>
       </c>
@@ -936,34 +941,34 @@
       </c>
       <c r="AL5" s="1"/>
     </row>
-    <row r="6" spans="2:38">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -977,35 +982,35 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
+    <row r="7" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="13" t="str">
         <f>"mvn deploy -DaltDeploymentRepository="&amp;AB7&amp;"::"&amp;AD7&amp;"::"&amp;AF7</f>
         <v>mvn deploy -DaltDeploymentRepository=artifactory::default::</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1033,32 +1038,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:38" outlineLevel="1">
+    <row r="8" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1072,34 +1077,34 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
     </row>
-    <row r="9" spans="2:38">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="2"/>
@@ -1115,35 +1120,35 @@
       </c>
       <c r="AL9" s="1"/>
     </row>
-    <row r="10" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
+    <row r="10" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="13" t="str">
         <f>"mvn deploy:deploy-file -DrepositoryId="&amp;AB10&amp;" -Durl="&amp;AF10&amp;" -DpomFile="&amp;AD10</f>
         <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl= -DpomFile=pom.xml</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1171,35 +1176,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:38" ht="60" customHeight="1" outlineLevel="1">
+    <row r="11" spans="2:38" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="13" t="str">
         <f>"mvn deploy:deploy-file -DrepositoryId="&amp;AB11&amp;" -Durl="&amp;AH11&amp;" -Dfile="&amp;AF11&amp;" -DpomFile="&amp;AD11</f>
         <v>mvn deploy:deploy-file -DrepositoryId=artifactory -Durl= -Dfile=microservice-archetype-0.2.10.jar -DpomFile=microservice-archetype-0.2.10.pom</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1231,32 +1236,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:38" outlineLevel="1">
+    <row r="12" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -1270,34 +1275,34 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
     </row>
-    <row r="13" spans="2:38">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -1313,35 +1318,35 @@
       </c>
       <c r="AL13" s="1"/>
     </row>
-    <row r="14" spans="2:38" ht="45" customHeight="1" outlineLevel="1">
+    <row r="14" spans="2:38" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="11" t="str">
+      <c r="C14" s="13" t="str">
         <f>"mvn install:install-file -Dfile="&amp;AB14&amp;" -DpomFile="&amp;AD14</f>
         <v>mvn install:install-file -Dfile=some.jar -DpomFile=microservice-archetype-0.2.10.pom</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1365,35 +1370,35 @@
       </c>
       <c r="AL14" s="1"/>
     </row>
-    <row r="15" spans="2:38" ht="45" outlineLevel="1">
+    <row r="15" spans="2:38" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="13" t="str">
         <f>"mvn install:install-file -Dfile="&amp;AB15&amp;" -DgroupId="&amp;AD15&amp;" -DartifactId="&amp;AF15&amp;" -Dversion="&amp;AH15&amp;" -Dpackaging="&amp;AJ15</f>
         <v>mvn install:install-file -Dfile=some.jar -DgroupId=tmp.group.id -DartifactId=sibis-wrapper-eg7029 -Dversion=0.0.2 -Dpackaging=jar</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
       <c r="AA15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1429,32 +1434,32 @@
       </c>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="2:38" outlineLevel="1">
+    <row r="16" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -1468,32 +1473,32 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="2:38">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -1507,7 +1512,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="6"/>
     </row>
-    <row r="18" spans="2:38">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1546,32 +1551,32 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19" spans="2:38" collapsed="1">
+    <row r="19" spans="2:38" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="12"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -1585,32 +1590,32 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="2:38">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -1624,32 +1629,32 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="2:38" outlineLevel="1">
+    <row r="21" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -1663,32 +1668,32 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="2:38" outlineLevel="1">
+    <row r="22" spans="2:38" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="12"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -1702,32 +1707,32 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="2:38" outlineLevel="2">
+    <row r="23" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -1741,32 +1746,32 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="2:38" outlineLevel="2">
+    <row r="24" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="14"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="12"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -1780,32 +1785,32 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="2:38" outlineLevel="3">
+    <row r="25" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="12"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -1819,32 +1824,32 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="2:38" outlineLevel="3">
+    <row r="26" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="14"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -1858,32 +1863,32 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="2:38" outlineLevel="4">
+    <row r="27" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="14"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -1897,32 +1902,32 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="2:38" outlineLevel="4">
+    <row r="28" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="14"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="12"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -1936,32 +1941,32 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="2:38" outlineLevel="5">
+    <row r="29" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="12"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -1975,32 +1980,32 @@
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
     </row>
-    <row r="30" spans="2:38" outlineLevel="5">
+    <row r="30" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="12"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -2014,32 +2019,32 @@
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
     </row>
-    <row r="31" spans="2:38" outlineLevel="6">
+    <row r="31" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="14"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="12"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -2053,32 +2058,32 @@
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
     </row>
-    <row r="32" spans="2:38" outlineLevel="6">
+    <row r="32" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="14"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -2092,7 +2097,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="2:38" outlineLevel="7">
+    <row r="33" spans="2:38" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2100,24 +2105,24 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="14"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="12"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -2131,7 +2136,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="2:38" outlineLevel="7">
+    <row r="34" spans="2:38" outlineLevel="7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2139,24 +2144,24 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="14"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="12"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -2170,32 +2175,32 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="2:38" outlineLevel="6">
+    <row r="35" spans="2:38" outlineLevel="6" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -2209,32 +2214,32 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="2:38" outlineLevel="5">
+    <row r="36" spans="2:38" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="14"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="12"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
@@ -2248,32 +2253,32 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="2:38" outlineLevel="4">
+    <row r="37" spans="2:38" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="14"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="12"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -2287,32 +2292,32 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="2:38" outlineLevel="3">
+    <row r="38" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="14"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="12"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
@@ -2326,32 +2331,32 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="2:38" outlineLevel="3">
+    <row r="39" spans="2:38" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="14"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="12"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -2365,32 +2370,32 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="2:38" outlineLevel="2">
+    <row r="40" spans="2:38" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="12"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -2404,32 +2409,32 @@
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="2:38">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="14"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="12"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -2445,23 +2450,13 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C12:Z12"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C15:Z15"/>
-    <mergeCell ref="E26:Z26"/>
-    <mergeCell ref="F27:Z27"/>
-    <mergeCell ref="B19:Z19"/>
-    <mergeCell ref="E25:Z25"/>
-    <mergeCell ref="B20:Z20"/>
-    <mergeCell ref="C21:Z21"/>
-    <mergeCell ref="C22:Z22"/>
-    <mergeCell ref="D23:Z23"/>
-    <mergeCell ref="D24:Z24"/>
-    <mergeCell ref="B3:Z3"/>
-    <mergeCell ref="B6:Z6"/>
-    <mergeCell ref="C7:Z7"/>
-    <mergeCell ref="C8:Z8"/>
-    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="I34:Z34"/>
+    <mergeCell ref="B41:Z41"/>
+    <mergeCell ref="B13:Z13"/>
+    <mergeCell ref="E38:Z38"/>
+    <mergeCell ref="D39:Z39"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="B18:Z18"/>
     <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="B9:Z9"/>
     <mergeCell ref="H35:Z35"/>
@@ -2478,15 +2473,25 @@
     <mergeCell ref="F28:Z28"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="B17:Z17"/>
+    <mergeCell ref="B3:Z3"/>
+    <mergeCell ref="B6:Z6"/>
+    <mergeCell ref="C7:Z7"/>
+    <mergeCell ref="C8:Z8"/>
+    <mergeCell ref="C10:Z10"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C15:Z15"/>
+    <mergeCell ref="E26:Z26"/>
+    <mergeCell ref="F27:Z27"/>
+    <mergeCell ref="B19:Z19"/>
+    <mergeCell ref="E25:Z25"/>
+    <mergeCell ref="B20:Z20"/>
+    <mergeCell ref="C21:Z21"/>
+    <mergeCell ref="C22:Z22"/>
+    <mergeCell ref="D23:Z23"/>
+    <mergeCell ref="D24:Z24"/>
     <mergeCell ref="C14:Z14"/>
     <mergeCell ref="C16:Z16"/>
-    <mergeCell ref="I34:Z34"/>
-    <mergeCell ref="B41:Z41"/>
-    <mergeCell ref="B13:Z13"/>
-    <mergeCell ref="E38:Z38"/>
-    <mergeCell ref="D39:Z39"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="B18:Z18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
